--- a/docs/Classifcation Reports/DecisionTreeClassifier()_3.xlsx
+++ b/docs/Classifcation Reports/DecisionTreeClassifier()_3.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7585385226370135</v>
+        <v>0.8089500860585198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246977547495682</v>
+        <v>0.8138528138528138</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7902358295407531</v>
+        <v>0.8113940440224429</v>
       </c>
       <c r="E2" t="n">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8528428093645485</v>
+        <v>0.8377952755905512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7882534775888718</v>
+        <v>0.8222565687789799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.819277108433735</v>
+        <v>0.8299531981279251</v>
       </c>
       <c r="E3" t="n">
         <v>647</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.782967032967033</v>
+        <v>0.7528373266078184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7196969696969697</v>
+        <v>0.758576874205845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.7556962025316456</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5042253521126761</v>
+        <v>0.5342857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5218658892128279</v>
+        <v>0.5327635327635327</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5128939828080229</v>
+        <v>0.5335235378031383</v>
       </c>
       <c r="E5" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7673469387755102</v>
       </c>
       <c r="C6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7673469387755102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7673469387755102</v>
       </c>
       <c r="E6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7673469387755102</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7246434292703177</v>
+        <v>0.7334671006356509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7136285228120594</v>
+        <v>0.7318624474002928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7181017301956277</v>
+        <v>0.7326417456212879</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7562027526384567</v>
+        <v>0.7674857668228967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7673469387755102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7534312979142758</v>
+        <v>0.767394392243536</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
